--- a/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{787FF610-E6F1-4E43-8AE7-AE30470E6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B762660-F61B-43CF-BEBF-E3E322F5BCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15A5FE72-4990-4B5C-B2DF-CD96DCAD32A0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C60F35E-063D-407E-B303-D12B8B7261C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -290,217 +290,217 @@
     <t>33,72%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
   </si>
   <si>
     <t>50,45%</t>
   </si>
   <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>37,22%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>62,78%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF496230-B6DF-4AEA-95C5-7135E2557097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032F996-6CF1-4548-8A22-9B0E0908CFDE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51D8FE4-8F70-42FE-B6C3-A853C7B83182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BA840-FB6E-4D27-B101-F9AA76B57BEC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7060DB42-1829-4C77-BFA9-5C362C6EAF5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044B0F5-4C1C-49CA-87A1-E3D13465C493}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF817A3E-C0FF-4829-9BCC-D8ADFB5B8C68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4624626-318F-4748-A55B-EB58730C8EE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3456,7 @@
         <v>1109</v>
       </c>
       <c r="I7" s="7">
-        <v>836955</v>
+        <v>836954</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>103</v>
@@ -3558,7 +3558,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B762660-F61B-43CF-BEBF-E3E322F5BCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E640471-053D-49AB-B449-33872523C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C60F35E-063D-407E-B303-D12B8B7261C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{089F4D90-7AB7-49C0-AA8C-5A2660F7A1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -239,7 +239,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F032F996-6CF1-4548-8A22-9B0E0908CFDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155EA222-E0FD-4EC3-942F-40A6A81B3E0C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,7 +1269,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1320,7 +1320,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032045</v>
+        <v>2032046</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612BA840-FB6E-4D27-B101-F9AA76B57BEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247278A-6B19-4CAC-BAEA-5A3552FC91B8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044B0F5-4C1C-49CA-87A1-E3D13465C493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BA9E09-9D7A-40C1-AF68-91E3D0059D46}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4624626-318F-4748-A55B-EB58730C8EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF2D698-5142-448D-988F-075F9E4FF911}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E640471-053D-49AB-B449-33872523C7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2C139B-5397-42BF-BA8C-F203D3C558F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{089F4D90-7AB7-49C0-AA8C-5A2660F7A1AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D470ABC8-BFE7-4AC1-BF25-4A50E50B80E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -290,217 +290,217 @@
     <t>33,72%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>50,45%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>37,22%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>29,82%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>62,78%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
   <si>
     <t>70,18%</t>
   </si>
   <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
   </si>
   <si>
     <t>19,12%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>28,88%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>24,15%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>71,12%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155EA222-E0FD-4EC3-942F-40A6A81B3E0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57907F-4D63-4B6E-B4A5-751B06C19C1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1269,7 +1269,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1320,7 +1320,7 @@
         <v>1980</v>
       </c>
       <c r="N9" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0247278A-6B19-4CAC-BAEA-5A3552FC91B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F325D7C-062C-4096-B1B8-E93EEDE6A703}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BA9E09-9D7A-40C1-AF68-91E3D0059D46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07A02F4-2780-4349-949F-A0A628DD17FA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF2D698-5142-448D-988F-075F9E4FF911}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01596E65-E950-4C2E-BF2B-2BE1645332C2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3456,7 @@
         <v>1109</v>
       </c>
       <c r="I7" s="7">
-        <v>836954</v>
+        <v>836955</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>103</v>
@@ -3558,7 +3558,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F2C139B-5397-42BF-BA8C-F203D3C558F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FABD181F-F3A5-4122-8D8F-3EFA22907832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D470ABC8-BFE7-4AC1-BF25-4A50E50B80E2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8E845BE2-1EA4-4B43-BD34-C9A7DDD49019}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -287,220 +287,220 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
   </si>
   <si>
     <t>37,64%</t>
   </si>
   <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
   </si>
   <si>
     <t>62,36%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D57907F-4D63-4B6E-B4A5-751B06C19C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31E06D3-6C70-40D5-BAEF-12222D778AF7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1424,7 +1424,7 @@
         <v>567</v>
       </c>
       <c r="N11" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1475,7 +1475,7 @@
         <v>567</v>
       </c>
       <c r="N12" s="7">
-        <v>601038</v>
+        <v>601037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F325D7C-062C-4096-B1B8-E93EEDE6A703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49ADA052-F35F-4197-9761-311B7AC14BF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2414,7 +2414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07A02F4-2780-4349-949F-A0A628DD17FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C722EA-AA04-43AA-9457-492BE988927A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3165,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01596E65-E950-4C2E-BF2B-2BE1645332C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6B61BE-9164-4B1F-A334-FF46690C9346}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,7 +3286,7 @@
         <v>253</v>
       </c>
       <c r="D4" s="7">
-        <v>182275</v>
+        <v>173541</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>82</v>
@@ -3301,7 +3301,7 @@
         <v>879</v>
       </c>
       <c r="I4" s="7">
-        <v>497782</v>
+        <v>449881</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>85</v>
@@ -3316,7 +3316,7 @@
         <v>1132</v>
       </c>
       <c r="N4" s="7">
-        <v>680057</v>
+        <v>623422</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>88</v>
@@ -3337,7 +3337,7 @@
         <v>437</v>
       </c>
       <c r="D5" s="7">
-        <v>358288</v>
+        <v>340401</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>91</v>
@@ -3352,7 +3352,7 @@
         <v>545</v>
       </c>
       <c r="I5" s="7">
-        <v>334143</v>
+        <v>302181</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>94</v>
@@ -3367,7 +3367,7 @@
         <v>982</v>
       </c>
       <c r="N5" s="7">
-        <v>692431</v>
+        <v>642582</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>97</v>
@@ -3388,7 +3388,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>540563</v>
+        <v>513942</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3403,7 +3403,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3418,7 +3418,7 @@
         <v>2114</v>
       </c>
       <c r="N6" s="7">
-        <v>1372488</v>
+        <v>1266004</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3441,7 +3441,7 @@
         <v>495</v>
       </c>
       <c r="D7" s="7">
-        <v>478155</v>
+        <v>467018</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>100</v>
@@ -3456,7 +3456,7 @@
         <v>1109</v>
       </c>
       <c r="I7" s="7">
-        <v>836955</v>
+        <v>876718</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>103</v>
@@ -3471,7 +3471,7 @@
         <v>1604</v>
       </c>
       <c r="N7" s="7">
-        <v>1315109</v>
+        <v>1343736</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>106</v>
@@ -3492,7 +3492,7 @@
         <v>1497</v>
       </c>
       <c r="D8" s="7">
-        <v>1683867</v>
+        <v>1823309</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>109</v>
@@ -3507,7 +3507,7 @@
         <v>1811</v>
       </c>
       <c r="I8" s="7">
-        <v>1411841</v>
+        <v>1360427</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>112</v>
@@ -3522,7 +3522,7 @@
         <v>3308</v>
       </c>
       <c r="N8" s="7">
-        <v>3095708</v>
+        <v>3183736</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>115</v>
@@ -3543,7 +3543,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3558,7 +3558,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3573,7 +3573,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3596,7 +3596,7 @@
         <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>128699</v>
+        <v>125156</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>118</v>
@@ -3611,7 +3611,7 @@
         <v>299</v>
       </c>
       <c r="I10" s="7">
-        <v>206199</v>
+        <v>192288</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>121</v>
@@ -3626,7 +3626,7 @@
         <v>423</v>
       </c>
       <c r="N10" s="7">
-        <v>334898</v>
+        <v>317444</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>124</v>
@@ -3647,7 +3647,7 @@
         <v>557</v>
       </c>
       <c r="D11" s="7">
-        <v>544340</v>
+        <v>521467</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>127</v>
@@ -3662,7 +3662,7 @@
         <v>705</v>
       </c>
       <c r="I11" s="7">
-        <v>507687</v>
+        <v>468175</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>130</v>
@@ -3677,7 +3677,7 @@
         <v>1262</v>
       </c>
       <c r="N11" s="7">
-        <v>1052028</v>
+        <v>989642</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>133</v>
@@ -3698,7 +3698,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3713,7 +3713,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3728,7 +3728,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3751,7 +3751,7 @@
         <v>872</v>
       </c>
       <c r="D13" s="7">
-        <v>789130</v>
+        <v>765715</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>136</v>
@@ -3766,7 +3766,7 @@
         <v>2287</v>
       </c>
       <c r="I13" s="7">
-        <v>1540934</v>
+        <v>1518887</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>139</v>
@@ -3781,7 +3781,7 @@
         <v>3159</v>
       </c>
       <c r="N13" s="7">
-        <v>2330064</v>
+        <v>2284603</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>142</v>
@@ -3802,7 +3802,7 @@
         <v>2491</v>
       </c>
       <c r="D14" s="7">
-        <v>2586494</v>
+        <v>2685177</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>145</v>
@@ -3817,7 +3817,7 @@
         <v>3061</v>
       </c>
       <c r="I14" s="7">
-        <v>2253672</v>
+        <v>2130783</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>148</v>
@@ -3832,7 +3832,7 @@
         <v>5552</v>
       </c>
       <c r="N14" s="7">
-        <v>4840166</v>
+        <v>4815959</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>151</v>
@@ -3853,7 +3853,7 @@
         <v>3363</v>
       </c>
       <c r="D15" s="7">
-        <v>3375624</v>
+        <v>3450892</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3868,7 +3868,7 @@
         <v>5348</v>
       </c>
       <c r="I15" s="7">
-        <v>3794606</v>
+        <v>3649670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3883,7 +3883,7 @@
         <v>8711</v>
       </c>
       <c r="N15" s="7">
-        <v>7170230</v>
+        <v>7100562</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
